--- a/developer-usability-study/developer-study/answers.xlsx
+++ b/developer-usability-study/developer-study/answers.xlsx
@@ -5,17 +5,17 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syq/Documents/研/研1/dApp升级/SmartUpdater论文/TSE-修改/SmartUpdater/developer-study/developer-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syq/Documents/研/研1/dApp升级/SmartUpdater论文/TSE-修改/SmartUpdater/developer-usability-study/developer-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D494FD2A-C678-F442-8B35-AF17CDD55CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{949B5E78-4EF3-704B-8964-285B12F5FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{70DBDAD9-78C3-5C4A-BC7B-4A698CA03183}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="112" uniqueCount="87">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="93" uniqueCount="73">
   <si>
     <t>SmartUpdater Developer Study Answer Sheet</t>
   </si>
@@ -119,15 +119,6 @@
     <t>(Time in Minutes)</t>
   </si>
   <si>
-    <t>How much gas does it take to deploy the converted contract? </t>
-  </si>
-  <si>
-    <t>(Cost in gas)</t>
-  </si>
-  <si>
-    <t>How much gas does it take to deploy the converted contract using SmartUpdater?</t>
-  </si>
-  <si>
     <t>Task 2</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
   </si>
   <si>
     <t>T2Q8</t>
-  </si>
-  <si>
-    <t>How much gas does it take to deploy the new contract using SmartUpdater? </t>
   </si>
   <si>
     <t>Additional Feedback</t>
@@ -268,22 +256,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>T1Q15</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1Q16</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>How much gas does it take to deploy the converted contract using OpenZeppelin’s method?</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1Q17</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">How difficult is the contract maintenance process by yourself? </t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -306,29 +278,6 @@
   <si>
     <t>How much time do you need to perform maintenance using SmartUpdater?</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2Q10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>How much gas does it take to deploy the new manually converted contract?</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2Q11</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">How much gas does it take to deploy the new OpenZeppelin-based contract? </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2Q12</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>storage collision</t>
   </si>
   <si>
     <t>(Time in Minutes)</t>
@@ -583,36 +532,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -965,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBD08A8-9C4B-6E4D-856A-BBABBB3F1A7D}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -982,21 +922,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1004,10 +944,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -1015,10 +955,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
@@ -1026,21 +966,21 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
@@ -1048,10 +988,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
@@ -1059,10 +999,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
@@ -1070,20 +1010,20 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
@@ -1091,21 +1031,21 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
@@ -1113,10 +1053,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
@@ -1124,310 +1064,239 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>53</v>
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>64</v>
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="35" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="18">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="118.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="7" customFormat="1">
-      <c r="A27" s="6" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17">
-      <c r="A28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="35" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="18">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="118.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="7" customFormat="1">
-      <c r="A41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="yes/no" prompt="Please answer with yes/no" sqref="C2:C4 C10:C11 C29" xr:uid="{73DFED25-EADE-1541-A037-7EE65490312E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="yes/no" prompt="Please answer with yes/no" sqref="C2:C4 C10:C11 C26" xr:uid="{73DFED25-EADE-1541-A037-7EE65490312E}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 not familiar_x000a_10 very familiar" sqref="C5:C8 C12" xr:uid="{08F2B80D-651B-804A-9D9B-5EBCD7D85612}">
@@ -1442,8 +1311,8 @@
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time Required" sqref="C16:C21 C30:C34" xr:uid="{F23580F1-8BCD-5747-9B07-97E0EE391F9E}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 very easy_x000a_7 very difficult" sqref="C14:C15 C26:C28" xr:uid="{AC3253CE-1E9E-8945-AFFE-4FE437A33FAB}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time Required" sqref="C16:C21 C27:C31" xr:uid="{F23580F1-8BCD-5747-9B07-97E0EE391F9E}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 very easy_x000a_7 very difficult" sqref="C14:C15" xr:uid="{AC3253CE-1E9E-8945-AFFE-4FE437A33FAB}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>

--- a/developer-usability-study/developer-study/answers.xlsx
+++ b/developer-usability-study/developer-study/answers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syq/Documents/研/研1/dApp升级/SmartUpdater论文/TSE-修改/SmartUpdater/developer-usability-study/developer-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{949B5E78-4EF3-704B-8964-285B12F5FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4487C11B-B4D9-F343-A3D5-5BE7B6ABE2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{70DBDAD9-78C3-5C4A-BC7B-4A698CA03183}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="93" uniqueCount="73">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="100" uniqueCount="80">
   <si>
     <t>SmartUpdater Developer Study Answer Sheet</t>
   </si>
@@ -285,6 +285,28 @@
   </si>
   <si>
     <t>(year number)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is your educational background ?</t>
+  </si>
+  <si>
+    <t>Do you have work experience in blockchain-related companies?</t>
+  </si>
+  <si>
+    <t>What is your primary field of work?</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>(yes/no)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -400,6 +422,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -532,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +581,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -905,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBD08A8-9C4B-6E4D-856A-BBABBB3F1A7D}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -933,386 +964,413 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="6" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="18">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="35" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="35" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="18">
+      <c r="A30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="118.75" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="118.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="3" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="yes/no" prompt="Please answer with yes/no" sqref="C2:C4 C10:C11 C26" xr:uid="{73DFED25-EADE-1541-A037-7EE65490312E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="yes/no" prompt="Please answer with yes/no" sqref="C2:C4 C13:C14 C29" xr:uid="{73DFED25-EADE-1541-A037-7EE65490312E}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 not familiar_x000a_10 very familiar" sqref="C5:C8 C12" xr:uid="{08F2B80D-651B-804A-9D9B-5EBCD7D85612}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 not familiar_x000a_10 very familiar" sqref="C5:C11 C15" xr:uid="{08F2B80D-651B-804A-9D9B-5EBCD7D85612}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="C9 C22" xr:uid="{5FBD9DBB-1CCA-4340-8025-836B67888D39}">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="C12 C25" xr:uid="{5FBD9DBB-1CCA-4340-8025-836B67888D39}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 least confident_x000a_7 very confident" sqref="C13 C23:C25" xr:uid="{9A897D51-99CC-104B-B3C1-AC1154F4A81D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 least confident_x000a_7 very confident" sqref="C16 C26:C28" xr:uid="{9A897D51-99CC-104B-B3C1-AC1154F4A81D}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time Required" sqref="C16:C21 C27:C31" xr:uid="{F23580F1-8BCD-5747-9B07-97E0EE391F9E}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 very easy_x000a_7 very difficult" sqref="C14:C15" xr:uid="{AC3253CE-1E9E-8945-AFFE-4FE437A33FAB}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time Required" sqref="C19:C24 C30:C34" xr:uid="{F23580F1-8BCD-5747-9B07-97E0EE391F9E}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 very easy_x000a_7 very difficult" sqref="C17:C18" xr:uid="{AC3253CE-1E9E-8945-AFFE-4FE437A33FAB}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
